--- a/data_year/zb/固定资产投资和房地产/按用途分房地产开发企业完成投资.xlsx
+++ b/data_year/zb/固定资产投资和房地产/按用途分房地产开发企业完成投资.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,524 +468,320 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3311.9839</v>
+        <v>34026.2276</v>
       </c>
       <c r="C2" t="n">
-        <v>794.2252</v>
+        <v>6777.3926</v>
       </c>
       <c r="D2" t="n">
-        <v>270.0142</v>
+        <v>2829.8096</v>
       </c>
       <c r="E2" t="n">
-        <v>297.8511</v>
+        <v>1807.3828</v>
       </c>
       <c r="F2" t="n">
-        <v>579.9927</v>
+        <v>5648.4</v>
       </c>
       <c r="G2" t="n">
-        <v>4984.0529</v>
+        <v>48259.403</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4216.676</v>
+        <v>44319.5018</v>
       </c>
       <c r="C3" t="n">
-        <v>1064.1859</v>
+        <v>7494.5455</v>
       </c>
       <c r="D3" t="n">
-        <v>369.9241</v>
+        <v>3424.1615</v>
       </c>
       <c r="E3" t="n">
-        <v>307.947</v>
+        <v>2558.7934</v>
       </c>
       <c r="F3" t="n">
-        <v>755.3018</v>
+        <v>7424.0451</v>
       </c>
       <c r="G3" t="n">
-        <v>6344.1</v>
+        <v>61796.8858</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5227.756</v>
+        <v>49374.2137</v>
       </c>
       <c r="C4" t="n">
-        <v>1248.5538</v>
+        <v>9750.9591</v>
       </c>
       <c r="D4" t="n">
-        <v>516.9632</v>
+        <v>3448.3745</v>
       </c>
       <c r="E4" t="n">
-        <v>381.0018</v>
+        <v>3366.6129</v>
       </c>
       <c r="F4" t="n">
-        <v>933.6107</v>
+        <v>9312.001200000001</v>
       </c>
       <c r="G4" t="n">
-        <v>7790.9</v>
+        <v>71803.78690000001</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6776.6861</v>
+        <v>58950.7627</v>
       </c>
       <c r="C5" t="n">
-        <v>1566.4303</v>
+        <v>10465.3421</v>
       </c>
       <c r="D5" t="n">
-        <v>632.9872</v>
+        <v>3637.9004</v>
       </c>
       <c r="E5" t="n">
-        <v>508.3372</v>
+        <v>4652.447</v>
       </c>
       <c r="F5" t="n">
-        <v>1302.3473</v>
+        <v>11944.8308</v>
       </c>
       <c r="G5" t="n">
-        <v>10153.8</v>
+        <v>86013.3826</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8836.9532</v>
+        <v>64352.1513</v>
       </c>
       <c r="C6" t="n">
-        <v>1945.3829</v>
+        <v>10696.0224</v>
       </c>
       <c r="D6" t="n">
-        <v>1073.6486</v>
+        <v>3844.718</v>
       </c>
       <c r="E6" t="n">
-        <v>652.1963</v>
+        <v>5641.189</v>
       </c>
       <c r="F6" t="n">
-        <v>1723.7192</v>
+        <v>14346.2517</v>
       </c>
       <c r="G6" t="n">
-        <v>13158.3</v>
+        <v>95035.61440000001</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10860.9322</v>
+        <v>64595.2421</v>
       </c>
       <c r="C7" t="n">
-        <v>2245.7185</v>
+        <v>10566.3742</v>
       </c>
       <c r="D7" t="n">
-        <v>1049.4059</v>
+        <v>3481.3652</v>
       </c>
       <c r="E7" t="n">
-        <v>763.0681</v>
+        <v>6209.742</v>
       </c>
       <c r="F7" t="n">
-        <v>2039.5282</v>
+        <v>14607.4875</v>
       </c>
       <c r="G7" t="n">
-        <v>15909.2471</v>
+        <v>95978.8458</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>13638.4071</v>
+        <v>68703.8743</v>
       </c>
       <c r="C8" t="n">
-        <v>2502.5729</v>
+        <v>11506.6143</v>
       </c>
       <c r="D8" t="n">
-        <v>1444.9996</v>
+        <v>3478.7431</v>
       </c>
       <c r="E8" t="n">
-        <v>928.0564000000001</v>
+        <v>6532.5959</v>
       </c>
       <c r="F8" t="n">
-        <v>2353.881</v>
+        <v>15837.5283</v>
       </c>
       <c r="G8" t="n">
-        <v>19422.9174</v>
+        <v>102580.6128</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>18005.4184</v>
+        <v>75147.8799</v>
       </c>
       <c r="C9" t="n">
-        <v>3462.7286</v>
+        <v>12249.3944</v>
       </c>
       <c r="D9" t="n">
-        <v>1807.123</v>
+        <v>4015.4427</v>
       </c>
       <c r="E9" t="n">
-        <v>1035.0409</v>
+        <v>6761.3571</v>
       </c>
       <c r="F9" t="n">
-        <v>2785.6494</v>
+        <v>15639.8974</v>
       </c>
       <c r="G9" t="n">
-        <v>25288.8373</v>
+        <v>109798.5288</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>22440.8742</v>
+        <v>85124.0163</v>
       </c>
       <c r="C10" t="n">
-        <v>4240.6706</v>
+        <v>14876.1659</v>
       </c>
       <c r="D10" t="n">
-        <v>2032.3107</v>
+        <v>4430.411</v>
       </c>
       <c r="E10" t="n">
-        <v>1167.1709</v>
+        <v>5997.2931</v>
       </c>
       <c r="F10" t="n">
-        <v>3354.4785</v>
+        <v>14167.2746</v>
       </c>
       <c r="G10" t="n">
-        <v>31203.1942</v>
+        <v>120164.7499</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>25613.6938</v>
+        <v>97070.74559999999</v>
       </c>
       <c r="C11" t="n">
-        <v>5070.246</v>
+        <v>15735.0677</v>
       </c>
       <c r="D11" t="n">
-        <v>2073.3449</v>
+        <v>3875.7138</v>
       </c>
       <c r="E11" t="n">
-        <v>1377.2061</v>
+        <v>6162.5969</v>
       </c>
       <c r="F11" t="n">
-        <v>4180.6621</v>
+        <v>13225.8547</v>
       </c>
       <c r="G11" t="n">
-        <v>36241.808</v>
+        <v>132194.2649</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>34026.2276</v>
+        <v>104445.7333</v>
       </c>
       <c r="C12" t="n">
-        <v>6777.3926</v>
-      </c>
-      <c r="D12" t="n">
-        <v>2829.8096</v>
-      </c>
+        <v>17427.0474</v>
+      </c>
+      <c r="D12" t="inlineStr"/>
       <c r="E12" t="n">
-        <v>1807.3828</v>
+        <v>6494.1019</v>
       </c>
       <c r="F12" t="n">
-        <v>5648.4</v>
+        <v>13076.0629</v>
       </c>
       <c r="G12" t="n">
-        <v>48259.403</v>
+        <v>141442.9455</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>44319.5018</v>
+        <v>111173</v>
       </c>
       <c r="C13" t="n">
-        <v>7494.5455</v>
-      </c>
-      <c r="D13" t="n">
-        <v>3424.1615</v>
-      </c>
+        <v>18010.4151</v>
+      </c>
+      <c r="D13" t="inlineStr"/>
       <c r="E13" t="n">
-        <v>2558.7934</v>
+        <v>5973.8974</v>
       </c>
       <c r="F13" t="n">
-        <v>7424.0451</v>
+        <v>12444.7642</v>
       </c>
       <c r="G13" t="n">
-        <v>61796.8858</v>
+        <v>147602.0767</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2022年</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>49374.2137</v>
+        <v>100646.3787</v>
       </c>
       <c r="C14" t="n">
-        <v>9750.9591</v>
-      </c>
-      <c r="D14" t="n">
-        <v>3448.3745</v>
-      </c>
+        <v>16310.9025</v>
+      </c>
+      <c r="D14" t="inlineStr"/>
       <c r="E14" t="n">
-        <v>3366.6129</v>
+        <v>5290.7711</v>
       </c>
       <c r="F14" t="n">
-        <v>9312.001200000001</v>
+        <v>10647.359</v>
       </c>
       <c r="G14" t="n">
-        <v>71803.78690000001</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>58950.7627</v>
-      </c>
-      <c r="C15" t="n">
-        <v>10465.3421</v>
-      </c>
-      <c r="D15" t="n">
-        <v>3637.9004</v>
-      </c>
-      <c r="E15" t="n">
-        <v>4652.447</v>
-      </c>
-      <c r="F15" t="n">
-        <v>11944.8308</v>
-      </c>
-      <c r="G15" t="n">
-        <v>86013.3826</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>64352.1513</v>
-      </c>
-      <c r="C16" t="n">
-        <v>10696.0224</v>
-      </c>
-      <c r="D16" t="n">
-        <v>3844.718</v>
-      </c>
-      <c r="E16" t="n">
-        <v>5641.189</v>
-      </c>
-      <c r="F16" t="n">
-        <v>14346.2517</v>
-      </c>
-      <c r="G16" t="n">
-        <v>95035.61440000001</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>64595.2421</v>
-      </c>
-      <c r="C17" t="n">
-        <v>10566.3742</v>
-      </c>
-      <c r="D17" t="n">
-        <v>3481.3652</v>
-      </c>
-      <c r="E17" t="n">
-        <v>6209.742</v>
-      </c>
-      <c r="F17" t="n">
-        <v>14607.4875</v>
-      </c>
-      <c r="G17" t="n">
-        <v>95978.8458</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>68703.8743</v>
-      </c>
-      <c r="C18" t="n">
-        <v>11506.6143</v>
-      </c>
-      <c r="D18" t="n">
-        <v>3478.7431</v>
-      </c>
-      <c r="E18" t="n">
-        <v>6532.5959</v>
-      </c>
-      <c r="F18" t="n">
-        <v>15837.5283</v>
-      </c>
-      <c r="G18" t="n">
-        <v>102580.6128</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>75147.8799</v>
-      </c>
-      <c r="C19" t="n">
-        <v>12249.3944</v>
-      </c>
-      <c r="D19" t="n">
-        <v>4015.4427</v>
-      </c>
-      <c r="E19" t="n">
-        <v>6761.3571</v>
-      </c>
-      <c r="F19" t="n">
-        <v>15639.8974</v>
-      </c>
-      <c r="G19" t="n">
-        <v>109798.5288</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>85124.0163</v>
-      </c>
-      <c r="C20" t="n">
-        <v>14876.1659</v>
-      </c>
-      <c r="D20" t="n">
-        <v>4430.411</v>
-      </c>
-      <c r="E20" t="n">
-        <v>5997.2931</v>
-      </c>
-      <c r="F20" t="n">
-        <v>14167.2746</v>
-      </c>
-      <c r="G20" t="n">
-        <v>120164.7499</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>97070.74559999999</v>
-      </c>
-      <c r="C21" t="n">
-        <v>15735.0677</v>
-      </c>
-      <c r="D21" t="n">
-        <v>3875.7138</v>
-      </c>
-      <c r="E21" t="n">
-        <v>6162.5969</v>
-      </c>
-      <c r="F21" t="n">
-        <v>13225.8547</v>
-      </c>
-      <c r="G21" t="n">
-        <v>132194.2649</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>104445.7333</v>
-      </c>
-      <c r="C22" t="n">
-        <v>17427.0474</v>
-      </c>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="n">
-        <v>6494.1019</v>
-      </c>
-      <c r="F22" t="n">
-        <v>13076.0629</v>
-      </c>
-      <c r="G22" t="n">
-        <v>141442.9455</v>
+        <v>132895.4113</v>
       </c>
     </row>
   </sheetData>
